--- a/Data/Gender_2020_Cleaned.xlsx
+++ b/Data/Gender_2020_Cleaned.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Zhen\Desktop\Y4S1\BT4015\Project\Datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE934F-A19F-421C-A576-BC010AAD1F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+  <si>
+    <t>Planning Area/Subzone of Residence</t>
+  </si>
   <si>
     <t>Total</t>
   </si>
@@ -55,15 +52,9 @@
     <t xml:space="preserve">Bukit Timah  </t>
   </si>
   <si>
-    <t xml:space="preserve">Central Water Catchment  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Changi </t>
   </si>
   <si>
-    <t xml:space="preserve">Changi Bay  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Choa Chu Kang  </t>
   </si>
   <si>
@@ -94,12 +85,6 @@
     <t xml:space="preserve">Mandai  </t>
   </si>
   <si>
-    <t xml:space="preserve">Marina East  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marina South  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Marine Parade  </t>
   </si>
   <si>
@@ -154,18 +139,12 @@
     <t xml:space="preserve">Serangoon  </t>
   </si>
   <si>
-    <t xml:space="preserve">Simpang  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Singapore River  </t>
   </si>
   <si>
     <t xml:space="preserve">Southern Islands  </t>
   </si>
   <si>
-    <t xml:space="preserve">Straits View  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sungei Kadut  </t>
   </si>
   <si>
@@ -194,16 +173,13 @@
   </si>
   <si>
     <t xml:space="preserve">Yishun  </t>
-  </si>
-  <si>
-    <t>Planning Area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,14 +242,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -320,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,27 +320,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,24 +354,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,35 +529,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>4044210</v>
@@ -637,9 +564,9 @@
         <v>2066650</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>162280</v>
@@ -651,9 +578,9 @@
         <v>84700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>276990</v>
@@ -665,9 +592,9 @@
         <v>142790</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>87320</v>
@@ -679,23 +606,23 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>158030</v>
@@ -707,9 +634,9 @@
         <v>80550</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>151250</v>
@@ -721,9 +648,9 @@
         <v>78520</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>138270</v>
@@ -735,9 +662,9 @@
         <v>70120</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>77860</v>
@@ -749,607 +676,577 @@
         <v>41880</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1850</v>
+      </c>
+      <c r="C11">
+        <v>960</v>
+      </c>
+      <c r="D11">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>1850</v>
+        <v>192070</v>
       </c>
       <c r="C12">
-        <v>960</v>
+        <v>95690</v>
       </c>
       <c r="D12">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>91990</v>
+      </c>
+      <c r="C13">
+        <v>43630</v>
+      </c>
+      <c r="D13">
+        <v>48360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>192070</v>
+        <v>3190</v>
       </c>
       <c r="C14">
-        <v>95690</v>
+        <v>1590</v>
       </c>
       <c r="D14">
-        <v>96380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>91990</v>
+        <v>110110</v>
       </c>
       <c r="C15">
-        <v>43630</v>
+        <v>54260</v>
       </c>
       <c r="D15">
-        <v>48360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>3190</v>
+        <v>227560</v>
       </c>
       <c r="C16">
-        <v>1590</v>
+        <v>111490</v>
       </c>
       <c r="D16">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>116070</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>110110</v>
+        <v>78600</v>
       </c>
       <c r="C17">
-        <v>54260</v>
+        <v>38930</v>
       </c>
       <c r="D17">
-        <v>55860</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>227560</v>
+        <v>262730</v>
       </c>
       <c r="C18">
-        <v>111490</v>
+        <v>131900</v>
       </c>
       <c r="D18">
-        <v>116070</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>130840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>78600</v>
+        <v>101290</v>
       </c>
       <c r="C19">
-        <v>38930</v>
+        <v>50040</v>
       </c>
       <c r="D19">
-        <v>39670</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>51260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2090</v>
+      </c>
+      <c r="C21">
+        <v>990</v>
+      </c>
+      <c r="D21">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>46220</v>
+      </c>
+      <c r="C22">
+        <v>21700</v>
+      </c>
+      <c r="D22">
+        <v>24520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>510</v>
+      </c>
+      <c r="C23">
+        <v>260</v>
+      </c>
+      <c r="D23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>8260</v>
+      </c>
+      <c r="C24">
+        <v>3950</v>
+      </c>
+      <c r="D24">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>49330</v>
+      </c>
+      <c r="C26">
+        <v>23930</v>
+      </c>
+      <c r="D26">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>920</v>
+      </c>
+      <c r="C27">
+        <v>430</v>
+      </c>
+      <c r="D27">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>18340</v>
+      </c>
+      <c r="C28">
+        <v>9210</v>
+      </c>
+      <c r="D28">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>147110</v>
+      </c>
+      <c r="C29">
+        <v>72540</v>
+      </c>
+      <c r="D29">
+        <v>74570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>40</v>
+      </c>
+      <c r="C30">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>262730</v>
-      </c>
-      <c r="C20">
-        <v>131900</v>
-      </c>
-      <c r="D20">
-        <v>130840</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>101290</v>
-      </c>
-      <c r="C21">
-        <v>50040</v>
-      </c>
-      <c r="D21">
-        <v>51260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>110</v>
-      </c>
-      <c r="C22">
-        <v>60</v>
-      </c>
-      <c r="D22">
+      <c r="D30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>174450</v>
+      </c>
+      <c r="C32">
+        <v>85940</v>
+      </c>
+      <c r="D32">
+        <v>88520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>95930</v>
+      </c>
+      <c r="C33">
+        <v>45120</v>
+      </c>
+      <c r="D33">
+        <v>50820</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>10070</v>
+      </c>
+      <c r="C34">
+        <v>4620</v>
+      </c>
+      <c r="D34">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>13120</v>
+      </c>
+      <c r="C35">
+        <v>6530</v>
+      </c>
+      <c r="D35">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>300</v>
+      </c>
+      <c r="C36">
+        <v>140</v>
+      </c>
+      <c r="D36">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>102640</v>
+      </c>
+      <c r="C37">
+        <v>50710</v>
+      </c>
+      <c r="D37">
+        <v>51930</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>249370</v>
+      </c>
+      <c r="C38">
+        <v>122480</v>
+      </c>
+      <c r="D38">
+        <v>126890</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>116900</v>
+      </c>
+      <c r="C39">
+        <v>56370</v>
+      </c>
+      <c r="D39">
+        <v>60530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>3260</v>
+      </c>
+      <c r="C40">
+        <v>1540</v>
+      </c>
+      <c r="D40">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1940</v>
+      </c>
+      <c r="C41">
+        <v>920</v>
+      </c>
+      <c r="D41">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>750</v>
+      </c>
+      <c r="C42">
+        <v>380</v>
+      </c>
+      <c r="D42">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>259900</v>
+      </c>
+      <c r="C43">
+        <v>127000</v>
+      </c>
+      <c r="D43">
+        <v>132900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>21810</v>
+      </c>
+      <c r="C44">
+        <v>10100</v>
+      </c>
+      <c r="D44">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>121850</v>
+      </c>
+      <c r="C46">
+        <v>57890</v>
+      </c>
+      <c r="D46">
+        <v>63960</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>36</v>
+      </c>
+      <c r="D47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>2090</v>
-      </c>
-      <c r="C23">
-        <v>990</v>
-      </c>
-      <c r="D23">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>46220</v>
-      </c>
-      <c r="C26">
-        <v>21700</v>
-      </c>
-      <c r="D26">
-        <v>24520</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>510</v>
-      </c>
-      <c r="C27">
-        <v>260</v>
-      </c>
-      <c r="D27">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>8260</v>
-      </c>
-      <c r="C28">
-        <v>3950</v>
-      </c>
-      <c r="D28">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>50</v>
-      </c>
-      <c r="C29">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>49330</v>
-      </c>
-      <c r="C30">
-        <v>23930</v>
-      </c>
-      <c r="D30">
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>920</v>
-      </c>
-      <c r="C31">
-        <v>430</v>
-      </c>
-      <c r="D31">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>18340</v>
-      </c>
-      <c r="C32">
-        <v>9210</v>
-      </c>
-      <c r="D32">
-        <v>9130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>147110</v>
-      </c>
-      <c r="C33">
-        <v>72540</v>
-      </c>
-      <c r="D33">
-        <v>74570</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>19</v>
-      </c>
-      <c r="D34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>80</v>
-      </c>
-      <c r="C35">
-        <v>39</v>
-      </c>
-      <c r="D35">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>174450</v>
-      </c>
-      <c r="C36">
-        <v>85940</v>
-      </c>
-      <c r="D36">
-        <v>88520</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>95930</v>
-      </c>
-      <c r="C37">
-        <v>45120</v>
-      </c>
-      <c r="D37">
-        <v>50820</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>10070</v>
-      </c>
-      <c r="C38">
-        <v>4620</v>
-      </c>
-      <c r="D38">
-        <v>5450</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>13120</v>
-      </c>
-      <c r="C39">
-        <v>6530</v>
-      </c>
-      <c r="D39">
-        <v>6590</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>300</v>
-      </c>
-      <c r="C40">
-        <v>140</v>
-      </c>
-      <c r="D40">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>102640</v>
-      </c>
-      <c r="C41">
-        <v>50710</v>
-      </c>
-      <c r="D41">
-        <v>51930</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>249370</v>
-      </c>
-      <c r="C42">
-        <v>122480</v>
-      </c>
-      <c r="D42">
-        <v>126890</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>116900</v>
-      </c>
-      <c r="C43">
-        <v>56370</v>
-      </c>
-      <c r="D43">
-        <v>60530</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>3260</v>
-      </c>
-      <c r="C45">
-        <v>1540</v>
-      </c>
-      <c r="D45">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>1940</v>
-      </c>
-      <c r="C46">
-        <v>920</v>
-      </c>
-      <c r="D46">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>750</v>
-      </c>
-      <c r="C48">
-        <v>380</v>
-      </c>
-      <c r="D48">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
       <c r="B49">
-        <v>259900</v>
+        <v>640</v>
       </c>
       <c r="C49">
-        <v>127000</v>
+        <v>290</v>
       </c>
       <c r="D49">
-        <v>132900</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>21810</v>
+        <v>255130</v>
       </c>
       <c r="C50">
-        <v>10100</v>
+        <v>127990</v>
       </c>
       <c r="D50">
-        <v>11700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>127150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>221610</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>109470</v>
       </c>
       <c r="D51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>121850</v>
-      </c>
-      <c r="C52">
-        <v>57890</v>
-      </c>
-      <c r="D52">
-        <v>63960</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>70</v>
-      </c>
-      <c r="C53">
-        <v>34</v>
-      </c>
-      <c r="D53">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>640</v>
-      </c>
-      <c r="C55">
-        <v>290</v>
-      </c>
-      <c r="D55">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>255130</v>
-      </c>
-      <c r="C56">
-        <v>127990</v>
-      </c>
-      <c r="D56">
-        <v>127150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>221610</v>
-      </c>
-      <c r="C57">
-        <v>109470</v>
-      </c>
-      <c r="D57">
         <v>112140</v>
       </c>
     </row>
